--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2888.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2888.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.207113814768161</v>
+        <v>1.967707753181458</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.120103359222412</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.171495914459229</v>
       </c>
       <c r="D1">
-        <v>1.828682854393826</v>
+        <v>2.643497943878174</v>
       </c>
       <c r="E1">
-        <v>1.202364322833466</v>
+        <v>3.772227764129639</v>
       </c>
     </row>
   </sheetData>
